--- a/doc/NLP项目实践大纲.xlsx
+++ b/doc/NLP项目实践大纲.xlsx
@@ -4,43 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23360" windowHeight="13940"/>
+    <workbookView windowWidth="28800" windowHeight="13940"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="课表" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
-  <si>
-    <t>NLP付费教程大纲、分工及排期</t>
-  </si>
-  <si>
-    <t>章</t>
-  </si>
-  <si>
-    <t>节</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+  <si>
+    <t>序号</t>
   </si>
   <si>
     <t>主要内容</t>
   </si>
   <si>
-    <t>参考或补充内容</t>
-  </si>
-  <si>
-    <t>工作量预估</t>
-  </si>
-  <si>
-    <t>负责人</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>基础知识</t>
+    <t>方案流程设计</t>
   </si>
   <si>
     <t>文档表示</t>
@@ -51,15 +34,6 @@
 训练流程</t>
   </si>
   <si>
-    <t>Ditto</t>
-  </si>
-  <si>
-    <t>7d</t>
-  </si>
-  <si>
-    <t>芙蕖</t>
-  </si>
-  <si>
     <t>GPT-based结构</t>
   </si>
   <si>
@@ -68,10 +42,27 @@
 In-Context和Instruct Tuning</t>
   </si>
   <si>
-    <t>UniLM、T5、GPT-3</t>
-  </si>
-  <si>
-    <t>超逸</t>
+    <t>常见大模型架构</t>
+  </si>
+  <si>
+    <t>ChatGLM
+LLaMA
+RWKV</t>
+  </si>
+  <si>
+    <t>全量微调</t>
+  </si>
+  <si>
+    <t>全量微调原理
+词表扩充</t>
+  </si>
+  <si>
+    <t>高效微调</t>
+  </si>
+  <si>
+    <t>常见方法原理（可参考PEFT）
+微调实战
+参数合并</t>
   </si>
   <si>
     <t>生成策略</t>
@@ -83,6 +74,51 @@
 安全（重要）</t>
   </si>
   <si>
+    <t>开发部署</t>
+  </si>
+  <si>
+    <t>qdrant向量检索/Triton</t>
+  </si>
+  <si>
+    <t>NLP付费教程大纲、分工及排期</t>
+  </si>
+  <si>
+    <t>章</t>
+  </si>
+  <si>
+    <t>节</t>
+  </si>
+  <si>
+    <t>参考或补充内容</t>
+  </si>
+  <si>
+    <t>工作量预估</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>基础知识</t>
+  </si>
+  <si>
+    <t>Ditto</t>
+  </si>
+  <si>
+    <t>7d</t>
+  </si>
+  <si>
+    <t>芙蕖</t>
+  </si>
+  <si>
+    <t>UniLM、T5、GPT-3</t>
+  </si>
+  <si>
+    <t>超逸</t>
+  </si>
+  <si>
     <t>Controllerable
 +KG</t>
   </si>
@@ -90,41 +126,18 @@
     <t>大模型微调</t>
   </si>
   <si>
-    <t>常见大模型架构</t>
-  </si>
-  <si>
-    <t>ChatGLM
-LLaMA
-RWKV</t>
-  </si>
-  <si>
     <t>Encoder Decoder架构对比</t>
   </si>
   <si>
     <t>翔哥/东哥</t>
   </si>
   <si>
-    <t>全量微调</t>
-  </si>
-  <si>
-    <t>全量微调原理
-词表扩充</t>
-  </si>
-  <si>
     <t>训练策略</t>
   </si>
   <si>
     <t>帆哥/十一</t>
   </si>
   <si>
-    <t>高效微调</t>
-  </si>
-  <si>
-    <t>常见方法原理（可参考PEFT）
-微调实战
-参数合并</t>
-  </si>
-  <si>
     <t>更多微调方法（整体视角）</t>
   </si>
   <si>
@@ -132,9 +145,6 @@
   </si>
   <si>
     <t>整体架构</t>
-  </si>
-  <si>
-    <t>方案流程设计</t>
   </si>
   <si>
     <t>2d</t>
@@ -193,9 +203,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -223,6 +233,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -233,9 +258,70 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,6 +340,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -261,107 +348,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,19 +386,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,25 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,49 +536,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,79 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,11 +595,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,6 +658,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -633,32 +684,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -667,172 +692,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,6 +863,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1173,9 +1207,128 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="14.4375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.34375" style="8" customWidth="1"/>
+    <col min="4" max="16380" width="9" style="8"/>
+    <col min="16381" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:3">
+      <c r="A2" s="11">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" ht="53" customHeight="1" spans="1:3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="59" customHeight="1" spans="1:3">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="49" customHeight="1" spans="1:3">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="36" customHeight="1" spans="1:3">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="56" customHeight="1" spans="1:3">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="68" spans="1:3">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="37" customHeight="1" spans="1:3">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1193,7 +1346,7 @@
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1204,80 +1357,80 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="65" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1286,74 +1439,74 @@
     </row>
     <row r="6" ht="51" customHeight="1" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="54" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" ht="58" customHeight="1" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1363,14 +1516,14 @@
     <row r="10" ht="42" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -1380,14 +1533,14 @@
     <row r="11" ht="42" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1396,27 +1549,27 @@
     </row>
     <row r="13" customHeight="1" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:1">
@@ -1424,32 +1577,32 @@
     </row>
     <row r="19" customHeight="1" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:1">
